--- a/data/pca/factorExposure/factorExposure_2014-09-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-09-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.0001677892239786885</v>
+        <v>0.01809901765214709</v>
       </c>
       <c r="C2">
-        <v>-0.118912512559659</v>
+        <v>-0.07036382830294088</v>
       </c>
       <c r="D2">
-        <v>-0.02119695405114811</v>
+        <v>0.03313478979878651</v>
       </c>
       <c r="E2">
-        <v>-0.2190111169375271</v>
+        <v>0.0510034612357361</v>
       </c>
       <c r="F2">
-        <v>-0.06971202996839634</v>
+        <v>0.149468474322542</v>
       </c>
       <c r="G2">
-        <v>0.04118308356023295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.01095222824766585</v>
+      </c>
+      <c r="H2">
+        <v>-0.06225105336851009</v>
+      </c>
+      <c r="I2">
+        <v>0.02073650653484516</v>
+      </c>
+      <c r="J2">
+        <v>-0.02643070779932256</v>
+      </c>
+      <c r="K2">
+        <v>0.1670294065959211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.01371969976886235</v>
+        <v>0.01597202819387051</v>
       </c>
       <c r="C4">
-        <v>-0.1654288398843897</v>
+        <v>-0.143907122163776</v>
       </c>
       <c r="D4">
-        <v>-0.03327792269892409</v>
+        <v>0.06505614018225553</v>
       </c>
       <c r="E4">
-        <v>-0.05905473494123362</v>
+        <v>-0.03289599175619805</v>
       </c>
       <c r="F4">
-        <v>0.05787105367111908</v>
+        <v>0.06970328064586673</v>
       </c>
       <c r="G4">
-        <v>-0.03830212753954204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03465231508223557</v>
+      </c>
+      <c r="H4">
+        <v>-0.08032669818064338</v>
+      </c>
+      <c r="I4">
+        <v>0.1000298297760098</v>
+      </c>
+      <c r="J4">
+        <v>-0.02463433058300946</v>
+      </c>
+      <c r="K4">
+        <v>0.1729555585578582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.02555504141452093</v>
+        <v>0.03738757579167404</v>
       </c>
       <c r="C6">
-        <v>-0.07817134193048329</v>
+        <v>-0.08671618640063462</v>
       </c>
       <c r="D6">
-        <v>-0.05938086565461149</v>
+        <v>0.02802639757206165</v>
       </c>
       <c r="E6">
-        <v>-0.06905557806155235</v>
+        <v>0.03811127096280841</v>
       </c>
       <c r="F6">
-        <v>0.00776863969240148</v>
+        <v>0.03168675606059961</v>
       </c>
       <c r="G6">
-        <v>-0.02115390179628078</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.04003784401935786</v>
+      </c>
+      <c r="H6">
+        <v>-0.03359574163211577</v>
+      </c>
+      <c r="I6">
+        <v>-0.01757571178177702</v>
+      </c>
+      <c r="J6">
+        <v>0.09391914509556293</v>
+      </c>
+      <c r="K6">
+        <v>0.08231509022450526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.001575366997393593</v>
+        <v>0.01816876244802949</v>
       </c>
       <c r="C7">
-        <v>-0.06323359536320979</v>
+        <v>-0.07090464733799884</v>
       </c>
       <c r="D7">
-        <v>-0.03749961295906466</v>
+        <v>0.0311892146444647</v>
       </c>
       <c r="E7">
-        <v>-0.02076201423865093</v>
+        <v>-0.01711454779670551</v>
       </c>
       <c r="F7">
-        <v>0.02597988026404967</v>
+        <v>-0.00420532330745415</v>
       </c>
       <c r="G7">
-        <v>-0.03241470015771764</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.03368442998104035</v>
+      </c>
+      <c r="H7">
+        <v>-0.08918114008800325</v>
+      </c>
+      <c r="I7">
+        <v>0.02318600391573401</v>
+      </c>
+      <c r="J7">
+        <v>0.006835368618482966</v>
+      </c>
+      <c r="K7">
+        <v>0.02910293446232879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.01258254638281411</v>
+        <v>-0.0004830479828205372</v>
       </c>
       <c r="C8">
-        <v>-0.0675145556833536</v>
+        <v>-0.06082247814972782</v>
       </c>
       <c r="D8">
-        <v>-0.04372225490419471</v>
+        <v>0.04561445862575873</v>
       </c>
       <c r="E8">
-        <v>-0.06715153289505815</v>
+        <v>0.006906895729851677</v>
       </c>
       <c r="F8">
-        <v>0.003715594510759519</v>
+        <v>0.06023900875816223</v>
       </c>
       <c r="G8">
-        <v>-0.006693550381407253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.01724447468761002</v>
+      </c>
+      <c r="H8">
+        <v>-0.06002095808767197</v>
+      </c>
+      <c r="I8">
+        <v>0.02702773644926971</v>
+      </c>
+      <c r="J8">
+        <v>-0.0002858059081931854</v>
+      </c>
+      <c r="K8">
+        <v>-0.01412381378533348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.005981383576923092</v>
+        <v>0.01266700612165194</v>
       </c>
       <c r="C9">
-        <v>-0.1192125807929036</v>
+        <v>-0.1043113558625227</v>
       </c>
       <c r="D9">
-        <v>-0.04540669287981179</v>
+        <v>0.04263962537081323</v>
       </c>
       <c r="E9">
-        <v>-0.01680456680732164</v>
+        <v>-0.007659093037291257</v>
       </c>
       <c r="F9">
-        <v>0.006223636455987646</v>
+        <v>0.03329517297724311</v>
       </c>
       <c r="G9">
-        <v>-0.05835226795181813</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.01992831250793043</v>
+      </c>
+      <c r="H9">
+        <v>-0.08599438764417537</v>
+      </c>
+      <c r="I9">
+        <v>0.07446199813737918</v>
+      </c>
+      <c r="J9">
+        <v>-0.001481463286761224</v>
+      </c>
+      <c r="K9">
+        <v>0.08167991460694088</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2737090279214397</v>
+        <v>0.2484650730806279</v>
       </c>
       <c r="C10">
-        <v>0.06595627775342866</v>
+        <v>0.09076033948935636</v>
       </c>
       <c r="D10">
-        <v>0.01769256827837118</v>
+        <v>-0.006811235300642373</v>
       </c>
       <c r="E10">
-        <v>0.01759822433331418</v>
+        <v>0.01223679616291985</v>
       </c>
       <c r="F10">
-        <v>0.004894143035762402</v>
+        <v>-0.002653663083097916</v>
       </c>
       <c r="G10">
-        <v>-0.02812205339274294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02623330993191897</v>
+      </c>
+      <c r="H10">
+        <v>-0.03017422760773075</v>
+      </c>
+      <c r="I10">
+        <v>0.01672085361779328</v>
+      </c>
+      <c r="J10">
+        <v>-0.172172477529269</v>
+      </c>
+      <c r="K10">
+        <v>-0.08734558127746694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.002050253007854176</v>
+        <v>0.01604428455417683</v>
       </c>
       <c r="C11">
-        <v>-0.0659725063174207</v>
+        <v>-0.0824609708647597</v>
       </c>
       <c r="D11">
-        <v>-0.0305207290809707</v>
+        <v>0.03883360298055803</v>
       </c>
       <c r="E11">
-        <v>0.02081603944114256</v>
+        <v>-0.005762201542344174</v>
       </c>
       <c r="F11">
-        <v>0.00686587592481212</v>
+        <v>-0.01341344667987479</v>
       </c>
       <c r="G11">
-        <v>-0.04725438793734069</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.01158760843208672</v>
+      </c>
+      <c r="H11">
+        <v>-0.02743939499418674</v>
+      </c>
+      <c r="I11">
+        <v>0.01241497488267032</v>
+      </c>
+      <c r="J11">
+        <v>0.02974922817409763</v>
+      </c>
+      <c r="K11">
+        <v>-0.007822504983489154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.0009127476514404452</v>
+        <v>0.01540423097673812</v>
       </c>
       <c r="C12">
-        <v>-0.04421861521933224</v>
+        <v>-0.05544987608567611</v>
       </c>
       <c r="D12">
-        <v>-0.03655791205599639</v>
+        <v>0.02591004125230105</v>
       </c>
       <c r="E12">
-        <v>0.01512822340525942</v>
+        <v>0.01910245366343909</v>
       </c>
       <c r="F12">
-        <v>-0.02408485532011474</v>
+        <v>-0.01273376657985419</v>
       </c>
       <c r="G12">
-        <v>-0.06302663955898798</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.0299946340852947</v>
+      </c>
+      <c r="H12">
+        <v>-0.02058522281347684</v>
+      </c>
+      <c r="I12">
+        <v>0.01561124882118403</v>
+      </c>
+      <c r="J12">
+        <v>0.02089834881100003</v>
+      </c>
+      <c r="K12">
+        <v>0.001504735282373667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.006747748988675221</v>
+        <v>0.004896465742507349</v>
       </c>
       <c r="C13">
-        <v>-0.1252687888305401</v>
+        <v>-0.120194890078106</v>
       </c>
       <c r="D13">
-        <v>-0.06945588345983168</v>
+        <v>0.04340387665948676</v>
       </c>
       <c r="E13">
-        <v>-0.04916040851033725</v>
+        <v>0.1153117498596669</v>
       </c>
       <c r="F13">
-        <v>-0.06270464064785973</v>
+        <v>0.104740454781276</v>
       </c>
       <c r="G13">
-        <v>-0.1808310337451111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.1294231848423019</v>
+      </c>
+      <c r="H13">
+        <v>-0.1369252190445009</v>
+      </c>
+      <c r="I13">
+        <v>-0.0974669190847631</v>
+      </c>
+      <c r="J13">
+        <v>-0.2001587508539654</v>
+      </c>
+      <c r="K13">
+        <v>-0.2222735953300655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.00444711076170774</v>
+        <v>0.02031903456422535</v>
       </c>
       <c r="C14">
-        <v>-0.07110561119772391</v>
+        <v>-0.07582879897369253</v>
       </c>
       <c r="D14">
-        <v>-0.03702965782368892</v>
+        <v>0.04965472927069521</v>
       </c>
       <c r="E14">
-        <v>-0.02661360762650191</v>
+        <v>0.04399686691659553</v>
       </c>
       <c r="F14">
-        <v>-0.02791123658869789</v>
+        <v>0.0007567716503932321</v>
       </c>
       <c r="G14">
-        <v>-0.07754376568358914</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.0958417581263394</v>
+      </c>
+      <c r="H14">
+        <v>-0.1939236453478684</v>
+      </c>
+      <c r="I14">
+        <v>0.03171800271316302</v>
+      </c>
+      <c r="J14">
+        <v>0.01480849357213105</v>
+      </c>
+      <c r="K14">
+        <v>-0.1204971576989207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.002632373882669308</v>
+        <v>0.003501172831348365</v>
       </c>
       <c r="C15">
-        <v>-0.09917295987420875</v>
+        <v>-0.08347444254451584</v>
       </c>
       <c r="D15">
-        <v>-0.0480870922517156</v>
+        <v>0.03420696559368596</v>
       </c>
       <c r="E15">
-        <v>-0.04336224624732526</v>
+        <v>-0.006748161033227121</v>
       </c>
       <c r="F15">
-        <v>0.001591223978101157</v>
+        <v>0.02478385454780527</v>
       </c>
       <c r="G15">
-        <v>-0.05541512625861678</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.03157083341694644</v>
+      </c>
+      <c r="H15">
+        <v>-0.09137761200161114</v>
+      </c>
+      <c r="I15">
+        <v>0.03366312623362885</v>
+      </c>
+      <c r="J15">
+        <v>0.02240074918597986</v>
+      </c>
+      <c r="K15">
+        <v>-0.06746174129577209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.005081004154783704</v>
+        <v>0.01511459605364082</v>
       </c>
       <c r="C16">
-        <v>-0.05600734020224477</v>
+        <v>-0.06198592011219663</v>
       </c>
       <c r="D16">
-        <v>-0.02556865036416548</v>
+        <v>0.02685058321447724</v>
       </c>
       <c r="E16">
-        <v>0.01426114258160996</v>
+        <v>-0.001728257402778121</v>
       </c>
       <c r="F16">
-        <v>-0.009430927882435559</v>
+        <v>-0.008250252406437543</v>
       </c>
       <c r="G16">
-        <v>-0.03294102134959251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.01057214974087261</v>
+      </c>
+      <c r="H16">
+        <v>-0.01960760456160453</v>
+      </c>
+      <c r="I16">
+        <v>0.01088225690215005</v>
+      </c>
+      <c r="J16">
+        <v>0.02210697293628901</v>
+      </c>
+      <c r="K16">
+        <v>0.00734828857366582</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.008961097118923808</v>
+        <v>0.01419368482703413</v>
       </c>
       <c r="C20">
-        <v>-0.08512284025267068</v>
+        <v>-0.08600735613800313</v>
       </c>
       <c r="D20">
-        <v>-0.03702804564600757</v>
+        <v>0.02745668106232356</v>
       </c>
       <c r="E20">
-        <v>0.02340406102352758</v>
+        <v>-0.02336471806499023</v>
       </c>
       <c r="F20">
-        <v>0.01003076265708121</v>
+        <v>-0.01060169351176182</v>
       </c>
       <c r="G20">
-        <v>-0.1108303537583656</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04103370346927915</v>
+      </c>
+      <c r="H20">
+        <v>-0.069991400955876</v>
+      </c>
+      <c r="I20">
+        <v>0.01798567845908445</v>
+      </c>
+      <c r="J20">
+        <v>0.02039284096934995</v>
+      </c>
+      <c r="K20">
+        <v>0.01072227838697388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.009472834140830036</v>
+        <v>0.01156247674634117</v>
       </c>
       <c r="C21">
-        <v>-0.0904534166532312</v>
+        <v>-0.07201819013268727</v>
       </c>
       <c r="D21">
-        <v>0.0221099718165187</v>
+        <v>0.01944234049272726</v>
       </c>
       <c r="E21">
-        <v>-0.02836959498946583</v>
+        <v>0.09292164894068883</v>
       </c>
       <c r="F21">
-        <v>-0.06190568270780913</v>
+        <v>0.02189795700030382</v>
       </c>
       <c r="G21">
-        <v>-0.05848921656564544</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03543126267932752</v>
+      </c>
+      <c r="H21">
+        <v>-0.143945765313317</v>
+      </c>
+      <c r="I21">
+        <v>-0.003840583846922875</v>
+      </c>
+      <c r="J21">
+        <v>-0.01531500706807456</v>
+      </c>
+      <c r="K21">
+        <v>-0.04021210637169105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.01125202234264754</v>
+        <v>0.003728543121227067</v>
       </c>
       <c r="C22">
-        <v>-0.2501954319989507</v>
+        <v>-0.1766276723393463</v>
       </c>
       <c r="D22">
-        <v>0.08218736622354003</v>
+        <v>0.01826092122877379</v>
       </c>
       <c r="E22">
-        <v>-0.334491802787776</v>
+        <v>-0.1040630812509327</v>
       </c>
       <c r="F22">
-        <v>0.2663023078192647</v>
+        <v>0.5248495203797867</v>
       </c>
       <c r="G22">
-        <v>0.1277779705398302</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.02060935310263721</v>
+      </c>
+      <c r="H22">
+        <v>0.292025458884882</v>
+      </c>
+      <c r="I22">
+        <v>-0.1009756872226735</v>
+      </c>
+      <c r="J22">
+        <v>0.004222045570990994</v>
+      </c>
+      <c r="K22">
+        <v>-0.1813742023091646</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.01251845295851447</v>
+        <v>0.008945760795906914</v>
       </c>
       <c r="C23">
-        <v>-0.252850914889906</v>
+        <v>-0.1805188825964816</v>
       </c>
       <c r="D23">
-        <v>0.08706382734571552</v>
+        <v>0.01825691518163602</v>
       </c>
       <c r="E23">
-        <v>-0.3283547712337071</v>
+        <v>-0.09913235299708698</v>
       </c>
       <c r="F23">
-        <v>0.2624654226526942</v>
+        <v>0.5091380112267713</v>
       </c>
       <c r="G23">
-        <v>0.1268782973121059</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.01816119646861841</v>
+      </c>
+      <c r="H23">
+        <v>0.2742884356070211</v>
+      </c>
+      <c r="I23">
+        <v>-0.08650271920549224</v>
+      </c>
+      <c r="J23">
+        <v>0.008461359802940955</v>
+      </c>
+      <c r="K23">
+        <v>-0.1704572413489553</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.0002559107191875959</v>
+        <v>0.01583818788780844</v>
       </c>
       <c r="C24">
-        <v>-0.05279000498715847</v>
+        <v>-0.06521143316324819</v>
       </c>
       <c r="D24">
-        <v>-0.04297050226913851</v>
+        <v>0.04033622367601983</v>
       </c>
       <c r="E24">
-        <v>0.0147171805717228</v>
+        <v>-0.003901942669638438</v>
       </c>
       <c r="F24">
-        <v>-0.0007089678663996337</v>
+        <v>-0.008720468705835104</v>
       </c>
       <c r="G24">
-        <v>-0.06206871608375541</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02717398656799791</v>
+      </c>
+      <c r="H24">
+        <v>-0.03597087755705205</v>
+      </c>
+      <c r="I24">
+        <v>0.01550324371165628</v>
+      </c>
+      <c r="J24">
+        <v>0.02265852806534099</v>
+      </c>
+      <c r="K24">
+        <v>-0.001237495124029105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.002172570741637243</v>
+        <v>0.01994651082484937</v>
       </c>
       <c r="C25">
-        <v>-0.06288403453710553</v>
+        <v>-0.06862775294934073</v>
       </c>
       <c r="D25">
-        <v>-0.02240066810316192</v>
+        <v>0.03335483538009294</v>
       </c>
       <c r="E25">
-        <v>0.02036061582444183</v>
+        <v>-0.004530027471769726</v>
       </c>
       <c r="F25">
-        <v>-0.0004943034277063925</v>
+        <v>-0.007669305758761409</v>
       </c>
       <c r="G25">
-        <v>-0.0558875643380391</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02150333215436201</v>
+      </c>
+      <c r="H25">
+        <v>-0.02923772746641197</v>
+      </c>
+      <c r="I25">
+        <v>0.02031212126251827</v>
+      </c>
+      <c r="J25">
+        <v>0.009101258984154212</v>
+      </c>
+      <c r="K25">
+        <v>-0.01379028281142755</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.0009514303900109603</v>
+        <v>0.02265069770977881</v>
       </c>
       <c r="C26">
-        <v>-0.04610351230005848</v>
+        <v>-0.05691902891223034</v>
       </c>
       <c r="D26">
-        <v>-0.07037059702908956</v>
+        <v>0.06327141314065665</v>
       </c>
       <c r="E26">
-        <v>-0.006047143769639856</v>
+        <v>-0.006254218274688979</v>
       </c>
       <c r="F26">
-        <v>-0.03749606582744405</v>
+        <v>-0.01677990344273596</v>
       </c>
       <c r="G26">
-        <v>-0.04065528056475574</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.007602018743685923</v>
+      </c>
+      <c r="H26">
+        <v>-0.09401397609018525</v>
+      </c>
+      <c r="I26">
+        <v>0.0626096006710995</v>
+      </c>
+      <c r="J26">
+        <v>0.04488138713113858</v>
+      </c>
+      <c r="K26">
+        <v>0.1210942173874517</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3675822517888702</v>
+        <v>0.3153388565601861</v>
       </c>
       <c r="C28">
-        <v>0.07762861932567272</v>
+        <v>0.1040648448267714</v>
       </c>
       <c r="D28">
-        <v>0.01620765841982067</v>
+        <v>-0.03305494485183658</v>
       </c>
       <c r="E28">
-        <v>0.06127169590864246</v>
+        <v>0.00686286376266165</v>
       </c>
       <c r="F28">
-        <v>-0.04609890918860993</v>
+        <v>0.04482168224957708</v>
       </c>
       <c r="G28">
-        <v>0.07626453137975546</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.1144419700268762</v>
+      </c>
+      <c r="H28">
+        <v>-0.06310710557171836</v>
+      </c>
+      <c r="I28">
+        <v>-0.01477723530174607</v>
+      </c>
+      <c r="J28">
+        <v>-0.2138022803353638</v>
+      </c>
+      <c r="K28">
+        <v>0.03249787218677872</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.004107997553209824</v>
+        <v>0.01492448766016602</v>
       </c>
       <c r="C29">
-        <v>-0.07583349902729457</v>
+        <v>-0.08386330302873532</v>
       </c>
       <c r="D29">
-        <v>-0.04613907133456753</v>
+        <v>0.05296244027604732</v>
       </c>
       <c r="E29">
-        <v>-0.0199511220945402</v>
+        <v>0.04728213937264936</v>
       </c>
       <c r="F29">
-        <v>-0.02606484049822589</v>
+        <v>0.005806631105871897</v>
       </c>
       <c r="G29">
-        <v>-0.1142148941675032</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.1414374460734225</v>
+      </c>
+      <c r="H29">
+        <v>-0.2707159075767431</v>
+      </c>
+      <c r="I29">
+        <v>0.06464225040713431</v>
+      </c>
+      <c r="J29">
+        <v>-0.01513868341331033</v>
+      </c>
+      <c r="K29">
+        <v>-0.1886774875497978</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.01590734136583343</v>
+        <v>0.02987773653142343</v>
       </c>
       <c r="C30">
-        <v>-0.1673573374251178</v>
+        <v>-0.1419019114339216</v>
       </c>
       <c r="D30">
-        <v>-0.07199109139384008</v>
+        <v>0.05665882572294168</v>
       </c>
       <c r="E30">
-        <v>-0.03406259966938689</v>
+        <v>-0.01876687166068888</v>
       </c>
       <c r="F30">
-        <v>0.0411634532245773</v>
+        <v>0.06044658232547704</v>
       </c>
       <c r="G30">
-        <v>-0.01493210037352079</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.007606942035216867</v>
+      </c>
+      <c r="H30">
+        <v>-0.04170853625577835</v>
+      </c>
+      <c r="I30">
+        <v>0.01825302427067654</v>
+      </c>
+      <c r="J30">
+        <v>0.04707655509873909</v>
+      </c>
+      <c r="K30">
+        <v>0.0878444782368881</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.003951704179609552</v>
+        <v>0.01387897104838803</v>
       </c>
       <c r="C31">
-        <v>-0.05376163123435507</v>
+        <v>-0.08032905222722098</v>
       </c>
       <c r="D31">
-        <v>-0.03552405609703763</v>
+        <v>0.04190627578693195</v>
       </c>
       <c r="E31">
-        <v>0.01897136924942679</v>
+        <v>0.0026573375533048</v>
       </c>
       <c r="F31">
-        <v>-0.01490955182848064</v>
+        <v>-0.0005911899284425982</v>
       </c>
       <c r="G31">
-        <v>-0.01981969872969957</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01945272097605051</v>
+      </c>
+      <c r="H31">
+        <v>-0.0313358760125661</v>
+      </c>
+      <c r="I31">
+        <v>0.0236380129617188</v>
+      </c>
+      <c r="J31">
+        <v>0.01226783178617377</v>
+      </c>
+      <c r="K31">
+        <v>-0.02109711243927063</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.01634847068972635</v>
+        <v>0.02153150010068642</v>
       </c>
       <c r="C32">
-        <v>-0.08587394402365177</v>
+        <v>-0.0524417695946713</v>
       </c>
       <c r="D32">
-        <v>-0.002664956178963399</v>
+        <v>0.02520576306230551</v>
       </c>
       <c r="E32">
-        <v>-0.1463482487547438</v>
+        <v>0.05991558811066027</v>
       </c>
       <c r="F32">
-        <v>-0.02090492208550946</v>
+        <v>0.0986223458502591</v>
       </c>
       <c r="G32">
-        <v>-0.09039477132915459</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.07657809399953558</v>
+      </c>
+      <c r="H32">
+        <v>-0.160602916253757</v>
+      </c>
+      <c r="I32">
+        <v>-0.01491909333392124</v>
+      </c>
+      <c r="J32">
+        <v>-0.2808575894240121</v>
+      </c>
+      <c r="K32">
+        <v>-0.03457431263251422</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.01405249401697164</v>
+        <v>0.0169642328792797</v>
       </c>
       <c r="C33">
-        <v>-0.08832929838171745</v>
+        <v>-0.1046906080163212</v>
       </c>
       <c r="D33">
-        <v>-0.06566652662222262</v>
+        <v>0.05244046471024842</v>
       </c>
       <c r="E33">
-        <v>-0.008145204651028424</v>
+        <v>-0.006909304930417606</v>
       </c>
       <c r="F33">
-        <v>-0.01418365196079445</v>
+        <v>0.01303311068249437</v>
       </c>
       <c r="G33">
-        <v>-0.0433113853481138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.02817421396880335</v>
+      </c>
+      <c r="H33">
+        <v>-0.04876586092514493</v>
+      </c>
+      <c r="I33">
+        <v>0.02076028830663181</v>
+      </c>
+      <c r="J33">
+        <v>-0.01556299577861995</v>
+      </c>
+      <c r="K33">
+        <v>0.005400781116318325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.0001037923976870033</v>
+        <v>0.01568453961302245</v>
       </c>
       <c r="C34">
-        <v>-0.04626778629499394</v>
+        <v>-0.04832573880017876</v>
       </c>
       <c r="D34">
-        <v>-0.02018168103466631</v>
+        <v>0.02029229629492063</v>
       </c>
       <c r="E34">
-        <v>0.003206620800004883</v>
+        <v>0.005600266938460963</v>
       </c>
       <c r="F34">
-        <v>-0.02193432676226556</v>
+        <v>-0.01093096101518481</v>
       </c>
       <c r="G34">
-        <v>-0.04015073015524316</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01808180255090352</v>
+      </c>
+      <c r="H34">
+        <v>-0.00437537249444863</v>
+      </c>
+      <c r="I34">
+        <v>0.01438670300604793</v>
+      </c>
+      <c r="J34">
+        <v>0.01733417971206187</v>
+      </c>
+      <c r="K34">
+        <v>-0.0007088907474305028</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.001942339686147055</v>
+        <v>0.01031564573772827</v>
       </c>
       <c r="C35">
-        <v>-0.02617931853841282</v>
+        <v>-0.04438882282465266</v>
       </c>
       <c r="D35">
-        <v>-0.007408122638325187</v>
+        <v>0.02277971329884228</v>
       </c>
       <c r="E35">
-        <v>-0.005446349929967636</v>
+        <v>0.0103905668638757</v>
       </c>
       <c r="F35">
-        <v>-0.005505341962380812</v>
+        <v>0.006606512492424644</v>
       </c>
       <c r="G35">
-        <v>-0.03672481594489752</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.05805228404347076</v>
+      </c>
+      <c r="H35">
+        <v>-0.1368510488780488</v>
+      </c>
+      <c r="I35">
+        <v>0.06511945250209672</v>
+      </c>
+      <c r="J35">
+        <v>-0.02342229660504069</v>
+      </c>
+      <c r="K35">
+        <v>-0.1568189679587313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.001147483978442847</v>
+        <v>0.01609003197421171</v>
       </c>
       <c r="C36">
-        <v>-0.04825696752001991</v>
+        <v>-0.04943118782637705</v>
       </c>
       <c r="D36">
-        <v>-0.05276428302205106</v>
+        <v>0.04594409176351775</v>
       </c>
       <c r="E36">
-        <v>0.002960998807306481</v>
+        <v>-0.003014091618139706</v>
       </c>
       <c r="F36">
-        <v>-0.01370981219280379</v>
+        <v>0.006307610769027211</v>
       </c>
       <c r="G36">
-        <v>-0.02778256261103272</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.002635671652930733</v>
+      </c>
+      <c r="H36">
+        <v>-0.07460444032031258</v>
+      </c>
+      <c r="I36">
+        <v>0.0195271102977923</v>
+      </c>
+      <c r="J36">
+        <v>0.01781114255141725</v>
+      </c>
+      <c r="K36">
+        <v>0.04711935377416528</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.02994538908675299</v>
+        <v>0.01035188455266943</v>
       </c>
       <c r="C38">
-        <v>-0.05712188431148197</v>
+        <v>-0.05974908422517267</v>
       </c>
       <c r="D38">
-        <v>-0.05100701902559278</v>
+        <v>0.04132707481071241</v>
       </c>
       <c r="E38">
-        <v>0.01303955314914087</v>
+        <v>-0.03376627938969467</v>
       </c>
       <c r="F38">
-        <v>0.003832071815676201</v>
+        <v>0.01741918566034438</v>
       </c>
       <c r="G38">
-        <v>-0.03528250542115468</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01035932924973707</v>
+      </c>
+      <c r="H38">
+        <v>-0.08484478495884221</v>
+      </c>
+      <c r="I38">
+        <v>-0.01330930185194058</v>
+      </c>
+      <c r="J38">
+        <v>-0.0481748655266153</v>
+      </c>
+      <c r="K38">
+        <v>-0.02672562601976038</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.001739927684328525</v>
+        <v>0.01767924081768265</v>
       </c>
       <c r="C39">
-        <v>-0.1260225408070024</v>
+        <v>-0.1293679840185818</v>
       </c>
       <c r="D39">
-        <v>-0.05577828141327935</v>
+        <v>0.05764669435656283</v>
       </c>
       <c r="E39">
-        <v>0.004643388428209585</v>
+        <v>0.008461091097523158</v>
       </c>
       <c r="F39">
-        <v>-0.004343830082994375</v>
+        <v>-0.002337854110118409</v>
       </c>
       <c r="G39">
-        <v>-0.08824360156306621</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04554556541564519</v>
+      </c>
+      <c r="H39">
+        <v>-0.05438956784557009</v>
+      </c>
+      <c r="I39">
+        <v>0.004574655490103342</v>
+      </c>
+      <c r="J39">
+        <v>0.08081907604811289</v>
+      </c>
+      <c r="K39">
+        <v>0.03289074835280232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.0008495420186697516</v>
+        <v>0.0121564238148743</v>
       </c>
       <c r="C40">
-        <v>-0.02878916292355581</v>
+        <v>-0.05537518050470326</v>
       </c>
       <c r="D40">
-        <v>-0.01871121215336162</v>
+        <v>0.0420594964972246</v>
       </c>
       <c r="E40">
-        <v>-0.1390254034491765</v>
+        <v>0.03273036838076516</v>
       </c>
       <c r="F40">
-        <v>0.04014343215952262</v>
+        <v>0.03471784742296645</v>
       </c>
       <c r="G40">
-        <v>-0.1007825958438653</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.1571838798803533</v>
+      </c>
+      <c r="H40">
+        <v>-0.02241312276990507</v>
+      </c>
+      <c r="I40">
+        <v>0.02506727197130701</v>
+      </c>
+      <c r="J40">
+        <v>-0.01103776486917962</v>
+      </c>
+      <c r="K40">
+        <v>-0.2752395826923231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01188747080026459</v>
+        <v>0.02223508714569197</v>
       </c>
       <c r="C41">
-        <v>-0.02300235782713652</v>
+        <v>-0.04739008272280115</v>
       </c>
       <c r="D41">
-        <v>-0.01027893136864644</v>
+        <v>0.01681092582034236</v>
       </c>
       <c r="E41">
-        <v>0.01207276184946398</v>
+        <v>-0.0001256506313124476</v>
       </c>
       <c r="F41">
-        <v>-0.02067465556978178</v>
+        <v>-0.02224261163256153</v>
       </c>
       <c r="G41">
-        <v>0.03523753077615688</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.004798077902065572</v>
+      </c>
+      <c r="H41">
+        <v>-0.02238227881113207</v>
+      </c>
+      <c r="I41">
+        <v>-0.003133592929334741</v>
+      </c>
+      <c r="J41">
+        <v>-0.02706070396372175</v>
+      </c>
+      <c r="K41">
+        <v>-0.04417694060315139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.002607253721726522</v>
+        <v>0.01819823399360056</v>
       </c>
       <c r="C43">
-        <v>-0.02050536335791362</v>
+        <v>-0.04332481210563353</v>
       </c>
       <c r="D43">
-        <v>-0.02023887253345273</v>
+        <v>0.02969715703240037</v>
       </c>
       <c r="E43">
-        <v>0.005754743312791947</v>
+        <v>-0.0108554230617329</v>
       </c>
       <c r="F43">
-        <v>0.0005189329427609126</v>
+        <v>-0.01018082902177913</v>
       </c>
       <c r="G43">
-        <v>-0.007700746368000526</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.005250094416013933</v>
+      </c>
+      <c r="H43">
+        <v>-0.04065349332528193</v>
+      </c>
+      <c r="I43">
+        <v>-0.003953162828468928</v>
+      </c>
+      <c r="J43">
+        <v>0.003493536391009447</v>
+      </c>
+      <c r="K43">
+        <v>-0.03398788379290749</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.01739276306037333</v>
+        <v>0.01449841709652615</v>
       </c>
       <c r="C44">
-        <v>-0.09650131091550163</v>
+        <v>-0.09829285436232135</v>
       </c>
       <c r="D44">
-        <v>-0.03672285132433399</v>
+        <v>0.05778681767145612</v>
       </c>
       <c r="E44">
-        <v>-0.03529357818344261</v>
+        <v>-0.0320529988102461</v>
       </c>
       <c r="F44">
-        <v>0.02834537882217301</v>
+        <v>0.06101650821845506</v>
       </c>
       <c r="G44">
-        <v>-0.06380870892247563</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04946442329270502</v>
+      </c>
+      <c r="H44">
+        <v>-0.05273115242953554</v>
+      </c>
+      <c r="I44">
+        <v>0.009149858387462137</v>
+      </c>
+      <c r="J44">
+        <v>0.04736470853892427</v>
+      </c>
+      <c r="K44">
+        <v>0.08173090869847788</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.0060223903269454</v>
+        <v>0.003666603578233227</v>
       </c>
       <c r="C46">
-        <v>-0.06212530965985775</v>
+        <v>-0.06501326970035706</v>
       </c>
       <c r="D46">
-        <v>-0.0468485951027565</v>
+        <v>0.02974857848775293</v>
       </c>
       <c r="E46">
-        <v>-0.01906586463710836</v>
+        <v>0.006184580791504688</v>
       </c>
       <c r="F46">
-        <v>-0.007694890717155238</v>
+        <v>-0.006987141512578301</v>
       </c>
       <c r="G46">
-        <v>-0.06696448823010881</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.04747299113622725</v>
+      </c>
+      <c r="H46">
+        <v>-0.09643887863261515</v>
+      </c>
+      <c r="I46">
+        <v>0.004960970189378874</v>
+      </c>
+      <c r="J46">
+        <v>0.000856913181868467</v>
+      </c>
+      <c r="K46">
+        <v>-0.07558039211654605</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.003929782534131817</v>
+        <v>0.02136832226596679</v>
       </c>
       <c r="C47">
-        <v>-0.06452771349802307</v>
+        <v>-0.07836103917130312</v>
       </c>
       <c r="D47">
-        <v>-0.04785673096172898</v>
+        <v>0.04261616733086684</v>
       </c>
       <c r="E47">
-        <v>0.0287276309052075</v>
+        <v>0.005356534454518306</v>
       </c>
       <c r="F47">
-        <v>-0.04996610742942015</v>
+        <v>-0.01714349124407045</v>
       </c>
       <c r="G47">
-        <v>-0.04679535838885943</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.01737721908905428</v>
+      </c>
+      <c r="H47">
+        <v>-0.07155193447368829</v>
+      </c>
+      <c r="I47">
+        <v>-6.917826823063889e-05</v>
+      </c>
+      <c r="J47">
+        <v>-0.01694095625065655</v>
+      </c>
+      <c r="K47">
+        <v>-0.0254901088470758</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.004605498082586449</v>
+        <v>0.02037615435670486</v>
       </c>
       <c r="C48">
-        <v>-0.05060554234394753</v>
+        <v>-0.05104556846883852</v>
       </c>
       <c r="D48">
-        <v>-0.06007728855633793</v>
+        <v>0.05436808659882122</v>
       </c>
       <c r="E48">
-        <v>0.001722926073307314</v>
+        <v>-0.00815626545993167</v>
       </c>
       <c r="F48">
-        <v>-0.0109652492797694</v>
+        <v>-0.000867201998161684</v>
       </c>
       <c r="G48">
-        <v>-0.04011292312613891</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.005443812601215433</v>
+      </c>
+      <c r="H48">
+        <v>-0.08910429639678269</v>
+      </c>
+      <c r="I48">
+        <v>0.05303007012295528</v>
+      </c>
+      <c r="J48">
+        <v>0.03524407217067178</v>
+      </c>
+      <c r="K48">
+        <v>0.1004698523797217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.009263633352975859</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.02916883559450136</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.005831946503095156</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.007121451966837297</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.0390946089091487</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.0356780688812224</v>
+      </c>
+      <c r="H49">
+        <v>0.02455886355131775</v>
+      </c>
+      <c r="I49">
+        <v>0.04283811657271099</v>
+      </c>
+      <c r="J49">
+        <v>0.0402043557208803</v>
+      </c>
+      <c r="K49">
+        <v>0.02397178038994962</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.001939393933306077</v>
+        <v>0.01438063012824039</v>
       </c>
       <c r="C50">
-        <v>-0.0673863764335231</v>
+        <v>-0.07949013771115369</v>
       </c>
       <c r="D50">
-        <v>-0.03433027453463455</v>
+        <v>0.03078056720088907</v>
       </c>
       <c r="E50">
-        <v>0.002803269903284681</v>
+        <v>-0.007331094207189323</v>
       </c>
       <c r="F50">
-        <v>-0.001055890210125138</v>
+        <v>0.006726035866416513</v>
       </c>
       <c r="G50">
-        <v>-0.03504699071977324</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.0007165653852357494</v>
+      </c>
+      <c r="H50">
+        <v>-0.05190169278661582</v>
+      </c>
+      <c r="I50">
+        <v>0.01921354587252942</v>
+      </c>
+      <c r="J50">
+        <v>-0.04346229771676943</v>
+      </c>
+      <c r="K50">
+        <v>-0.01051341338323951</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.002649907776890238</v>
+        <v>-0.005775814722079253</v>
       </c>
       <c r="C51">
-        <v>-0.07267222411863472</v>
+        <v>-0.03334641760455412</v>
       </c>
       <c r="D51">
-        <v>-0.02398658098243977</v>
+        <v>0.02240124084743262</v>
       </c>
       <c r="E51">
-        <v>-0.04153068119773242</v>
+        <v>0.008769718489513431</v>
       </c>
       <c r="F51">
-        <v>0.01513818554229237</v>
+        <v>0.02894921426635633</v>
       </c>
       <c r="G51">
-        <v>-0.046004940176201</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.03092922822270882</v>
+      </c>
+      <c r="H51">
+        <v>-0.1000801105125615</v>
+      </c>
+      <c r="I51">
+        <v>0.0239986405621665</v>
+      </c>
+      <c r="J51">
+        <v>0.006876294618635962</v>
+      </c>
+      <c r="K51">
+        <v>0.09837044602398799</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.03437363275851225</v>
+        <v>0.05692245774919817</v>
       </c>
       <c r="C53">
-        <v>-0.1219447558194606</v>
+        <v>-0.1311903910892082</v>
       </c>
       <c r="D53">
-        <v>-0.08150973203540868</v>
+        <v>0.06016342020085175</v>
       </c>
       <c r="E53">
-        <v>0.1329709046161212</v>
+        <v>0.01832523369447861</v>
       </c>
       <c r="F53">
-        <v>-0.05152424199962216</v>
+        <v>-0.07262823443826691</v>
       </c>
       <c r="G53">
-        <v>0.05476887695701592</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.08604620409305935</v>
+      </c>
+      <c r="H53">
+        <v>0.02938083893480908</v>
+      </c>
+      <c r="I53">
+        <v>0.008962571971529991</v>
+      </c>
+      <c r="J53">
+        <v>-0.03439611305259227</v>
+      </c>
+      <c r="K53">
+        <v>-0.007383042189690171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.0013329500664951</v>
+        <v>0.01728645907830502</v>
       </c>
       <c r="C54">
-        <v>-0.06429171788851808</v>
+        <v>-0.07336463535685823</v>
       </c>
       <c r="D54">
-        <v>-0.009515696308580492</v>
+        <v>0.01401267224202275</v>
       </c>
       <c r="E54">
-        <v>0.02443153374395177</v>
+        <v>0.005202517484527493</v>
       </c>
       <c r="F54">
-        <v>0.006756841131734512</v>
+        <v>-0.01774413918356067</v>
       </c>
       <c r="G54">
-        <v>-0.02099681390385768</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.02453934912299677</v>
+      </c>
+      <c r="H54">
+        <v>-0.04157880799082795</v>
+      </c>
+      <c r="I54">
+        <v>0.03289746134859931</v>
+      </c>
+      <c r="J54">
+        <v>0.02418680884479971</v>
+      </c>
+      <c r="K54">
+        <v>0.002899574550048834</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.01911715437977925</v>
+        <v>0.03091371908937719</v>
       </c>
       <c r="C55">
-        <v>-0.07809330302275437</v>
+        <v>-0.08472305956853499</v>
       </c>
       <c r="D55">
-        <v>-0.07049854170859833</v>
+        <v>0.05607720460069622</v>
       </c>
       <c r="E55">
-        <v>0.06357169051705457</v>
+        <v>0.007874610080260216</v>
       </c>
       <c r="F55">
-        <v>-0.03982040904885854</v>
+        <v>-0.0520524622436354</v>
       </c>
       <c r="G55">
-        <v>0.01198631342057467</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.04008708685317467</v>
+      </c>
+      <c r="H55">
+        <v>0.02051808143309737</v>
+      </c>
+      <c r="I55">
+        <v>0.0158275334677727</v>
+      </c>
+      <c r="J55">
+        <v>0.01041883652700865</v>
+      </c>
+      <c r="K55">
+        <v>-0.001646886180672239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.01753461818769884</v>
+        <v>0.04468642514757933</v>
       </c>
       <c r="C56">
-        <v>-0.1514751938028922</v>
+        <v>-0.1492332072858191</v>
       </c>
       <c r="D56">
-        <v>-0.08291457944054548</v>
+        <v>0.08596977290987676</v>
       </c>
       <c r="E56">
-        <v>0.1177125038040487</v>
+        <v>0.04981391653960614</v>
       </c>
       <c r="F56">
-        <v>-0.07726665361270137</v>
+        <v>-0.09661098586292034</v>
       </c>
       <c r="G56">
-        <v>0.1127340973311316</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1669237308951292</v>
+      </c>
+      <c r="H56">
+        <v>0.03833450321350015</v>
+      </c>
+      <c r="I56">
+        <v>0.02632552192863892</v>
+      </c>
+      <c r="J56">
+        <v>-0.01599074628657831</v>
+      </c>
+      <c r="K56">
+        <v>0.01770604482798593</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.0201695386792855</v>
+        <v>0.02018123649977214</v>
       </c>
       <c r="C58">
-        <v>-0.299294863969399</v>
+        <v>-0.1829668423956065</v>
       </c>
       <c r="D58">
-        <v>0.01169360224996071</v>
+        <v>0.04146534662884862</v>
       </c>
       <c r="E58">
-        <v>-0.1809805667375396</v>
+        <v>-0.05165299671281474</v>
       </c>
       <c r="F58">
-        <v>0.2438956081595042</v>
+        <v>0.3139273694525397</v>
       </c>
       <c r="G58">
-        <v>0.08220515319177198</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.08191584593625857</v>
+      </c>
+      <c r="H58">
+        <v>-0.076355408459771</v>
+      </c>
+      <c r="I58">
+        <v>-0.02133995702735113</v>
+      </c>
+      <c r="J58">
+        <v>-0.04201942673135097</v>
+      </c>
+      <c r="K58">
+        <v>0.3623991288372503</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2857874985022952</v>
+        <v>0.2896878925639389</v>
       </c>
       <c r="C59">
-        <v>-0.001526332886021045</v>
+        <v>0.04313475231098681</v>
       </c>
       <c r="D59">
-        <v>0.01667264623560869</v>
+        <v>-0.005683545264582048</v>
       </c>
       <c r="E59">
-        <v>-0.04871889911438894</v>
+        <v>0.0171093275198674</v>
       </c>
       <c r="F59">
-        <v>-0.04925973926817762</v>
+        <v>0.04603082150957077</v>
       </c>
       <c r="G59">
-        <v>0.002731731414369203</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.0002965567317261197</v>
+      </c>
+      <c r="H59">
+        <v>0.02076778330270391</v>
+      </c>
+      <c r="I59">
+        <v>-0.01752474647490369</v>
+      </c>
+      <c r="J59">
+        <v>-0.02745757661324253</v>
+      </c>
+      <c r="K59">
+        <v>-0.02651070152171251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1046452734561442</v>
+        <v>0.1445914268243156</v>
       </c>
       <c r="C60">
-        <v>-0.1364628186789416</v>
+        <v>-0.1516526574061199</v>
       </c>
       <c r="D60">
-        <v>-0.08116457891745255</v>
+        <v>0.04748029104555165</v>
       </c>
       <c r="E60">
-        <v>0.07452192876171769</v>
+        <v>0.04053466345918156</v>
       </c>
       <c r="F60">
-        <v>-0.134820892494132</v>
+        <v>-0.114094322332404</v>
       </c>
       <c r="G60">
-        <v>-0.2499741836808836</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.2392060214067518</v>
+      </c>
+      <c r="H60">
+        <v>0.2455883847057695</v>
+      </c>
+      <c r="I60">
+        <v>-0.05525094172787722</v>
+      </c>
+      <c r="J60">
+        <v>0.03080861544248361</v>
+      </c>
+      <c r="K60">
+        <v>0.04238541099947004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.0009163288438765996</v>
+        <v>0.02059916315811917</v>
       </c>
       <c r="C61">
-        <v>-0.08141528697942355</v>
+        <v>-0.09716531790366412</v>
       </c>
       <c r="D61">
-        <v>-0.06429872389285569</v>
+        <v>0.05447849781477235</v>
       </c>
       <c r="E61">
-        <v>0.02992636183874449</v>
+        <v>0.008400455512925157</v>
       </c>
       <c r="F61">
-        <v>-0.0254897184024532</v>
+        <v>-0.02924381850647622</v>
       </c>
       <c r="G61">
-        <v>-0.08258424617152538</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.03235427128244714</v>
+      </c>
+      <c r="H61">
+        <v>-0.05428049911830892</v>
+      </c>
+      <c r="I61">
+        <v>0.02983744624650539</v>
+      </c>
+      <c r="J61">
+        <v>0.02960839321191702</v>
+      </c>
+      <c r="K61">
+        <v>-0.01108199137920356</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.003008812570992598</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01346285272689388</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.002977713318598475</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.009654427894333146</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.01560835896053638</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.01996416275250997</v>
+      </c>
+      <c r="H62">
+        <v>0.004228611131580872</v>
+      </c>
+      <c r="I62">
+        <v>0.05735403129776528</v>
+      </c>
+      <c r="J62">
+        <v>-0.01926226246922536</v>
+      </c>
+      <c r="K62">
+        <v>-0.005095650335158545</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.004493145159551465</v>
+        <v>0.02626833621733815</v>
       </c>
       <c r="C63">
-        <v>-0.05713380174855737</v>
+        <v>-0.06691625620991608</v>
       </c>
       <c r="D63">
-        <v>-0.04432111833324816</v>
+        <v>0.05995707721569102</v>
       </c>
       <c r="E63">
-        <v>0.02995687013056521</v>
+        <v>0.006664255522121255</v>
       </c>
       <c r="F63">
-        <v>-0.001219015748064994</v>
+        <v>-0.01694573712470377</v>
       </c>
       <c r="G63">
-        <v>-0.02866777811976949</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.006544524919818738</v>
+      </c>
+      <c r="H63">
+        <v>-0.05329246281164093</v>
+      </c>
+      <c r="I63">
+        <v>0.03961113861906478</v>
+      </c>
+      <c r="J63">
+        <v>0.01481253046979958</v>
+      </c>
+      <c r="K63">
+        <v>-0.007548537396440546</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.005370652401451101</v>
+        <v>0.01394544025202273</v>
       </c>
       <c r="C64">
-        <v>-0.0769601705166878</v>
+        <v>-0.09197630866744072</v>
       </c>
       <c r="D64">
-        <v>-0.06876950107708997</v>
+        <v>0.03191596707885852</v>
       </c>
       <c r="E64">
-        <v>-0.00503207436686304</v>
+        <v>-0.02608502110323064</v>
       </c>
       <c r="F64">
-        <v>0.008578952473765711</v>
+        <v>0.02763461142099058</v>
       </c>
       <c r="G64">
-        <v>-0.06670335561581008</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.07538400743568816</v>
+      </c>
+      <c r="H64">
+        <v>-0.04587591560853745</v>
+      </c>
+      <c r="I64">
+        <v>0.0287598861802098</v>
+      </c>
+      <c r="J64">
+        <v>0.0433165979887925</v>
+      </c>
+      <c r="K64">
+        <v>-0.01154289032359943</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.006587847099826472</v>
+        <v>0.0305197035843182</v>
       </c>
       <c r="C65">
-        <v>-0.07986123214660448</v>
+        <v>-0.09368219111011628</v>
       </c>
       <c r="D65">
-        <v>-0.04200484065847611</v>
+        <v>0.02262500785168358</v>
       </c>
       <c r="E65">
-        <v>-0.03705335528194292</v>
+        <v>-0.01676000677276559</v>
       </c>
       <c r="F65">
-        <v>0.0105229921929029</v>
+        <v>0.002488439564304484</v>
       </c>
       <c r="G65">
-        <v>-0.02381939617842131</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.08220299056796369</v>
+      </c>
+      <c r="H65">
+        <v>-0.005627284509632249</v>
+      </c>
+      <c r="I65">
+        <v>-0.0486401701854726</v>
+      </c>
+      <c r="J65">
+        <v>0.09988894557598989</v>
+      </c>
+      <c r="K65">
+        <v>0.09499186171085017</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.005430249543455443</v>
+        <v>0.01403278624935295</v>
       </c>
       <c r="C66">
-        <v>-0.1697918926411874</v>
+        <v>-0.1666262651177698</v>
       </c>
       <c r="D66">
-        <v>-0.04339216467744525</v>
+        <v>0.04967494168435138</v>
       </c>
       <c r="E66">
-        <v>-0.03217322272880064</v>
+        <v>0.01548762034289284</v>
       </c>
       <c r="F66">
-        <v>-0.02322341351333804</v>
+        <v>0.01076554721541547</v>
       </c>
       <c r="G66">
-        <v>-0.1071624196448755</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.0345779805982852</v>
+      </c>
+      <c r="H66">
+        <v>-0.06389833735452631</v>
+      </c>
+      <c r="I66">
+        <v>0.02554208716810632</v>
+      </c>
+      <c r="J66">
+        <v>0.05178414536633136</v>
+      </c>
+      <c r="K66">
+        <v>0.02480344675053471</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.02995913217250877</v>
+        <v>0.01906702722906924</v>
       </c>
       <c r="C67">
-        <v>-0.03163802380722941</v>
+        <v>-0.05016799624486298</v>
       </c>
       <c r="D67">
-        <v>-0.06619712138124142</v>
+        <v>0.04281459154179217</v>
       </c>
       <c r="E67">
-        <v>0.04459443941553837</v>
+        <v>-0.02855453569121155</v>
       </c>
       <c r="F67">
-        <v>-0.003323026862183588</v>
+        <v>-0.01822681799751516</v>
       </c>
       <c r="G67">
-        <v>-0.04090814377337679</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.0338645755081185</v>
+      </c>
+      <c r="H67">
+        <v>-0.05927759681013634</v>
+      </c>
+      <c r="I67">
+        <v>-0.02710231954914649</v>
+      </c>
+      <c r="J67">
+        <v>-0.04033800896569474</v>
+      </c>
+      <c r="K67">
+        <v>-0.03972070217994587</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2941329328235843</v>
+        <v>0.2956051528867493</v>
       </c>
       <c r="C68">
-        <v>0.02240453171316156</v>
+        <v>0.06684807573157367</v>
       </c>
       <c r="D68">
-        <v>-0.002144540461498299</v>
+        <v>-0.02420843334303489</v>
       </c>
       <c r="E68">
-        <v>-0.03359639147029036</v>
+        <v>0.006220220577965573</v>
       </c>
       <c r="F68">
-        <v>-0.008796172110180403</v>
+        <v>0.03906091538724535</v>
       </c>
       <c r="G68">
-        <v>-0.009701542823465898</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01655061209828962</v>
+      </c>
+      <c r="H68">
+        <v>-0.01721668081035722</v>
+      </c>
+      <c r="I68">
+        <v>0.05945045475429579</v>
+      </c>
+      <c r="J68">
+        <v>-0.04766079823083131</v>
+      </c>
+      <c r="K68">
+        <v>0.007178342625423268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.007765519341178158</v>
+        <v>0.007821543114147553</v>
       </c>
       <c r="C69">
-        <v>-0.04208251460797019</v>
+        <v>-0.04659029765238976</v>
       </c>
       <c r="D69">
-        <v>-0.06535111546016929</v>
+        <v>0.02532055467437064</v>
       </c>
       <c r="E69">
-        <v>0.01735038009091665</v>
+        <v>0.00581159505710144</v>
       </c>
       <c r="F69">
-        <v>-0.006194680971326693</v>
+        <v>-0.01452930066196332</v>
       </c>
       <c r="G69">
-        <v>-0.01681154957981228</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02561949372466379</v>
+      </c>
+      <c r="H69">
+        <v>-0.03363930307843391</v>
+      </c>
+      <c r="I69">
+        <v>0.003203389114020135</v>
+      </c>
+      <c r="J69">
+        <v>-0.02052460762332579</v>
+      </c>
+      <c r="K69">
+        <v>-0.00377399755793878</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2836343438730862</v>
+        <v>0.2774593488839563</v>
       </c>
       <c r="C71">
-        <v>0.03782627420198813</v>
+        <v>0.07180725065311297</v>
       </c>
       <c r="D71">
-        <v>0.009478258675631381</v>
+        <v>-0.02312050516756966</v>
       </c>
       <c r="E71">
-        <v>-0.01989149157247093</v>
+        <v>-0.01505603083376519</v>
       </c>
       <c r="F71">
-        <v>0.01187374431206821</v>
+        <v>0.06003418164502137</v>
       </c>
       <c r="G71">
-        <v>-0.0116811432789759</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02067368559672361</v>
+      </c>
+      <c r="H71">
+        <v>-0.04975370570261751</v>
+      </c>
+      <c r="I71">
+        <v>0.01660923350873661</v>
+      </c>
+      <c r="J71">
+        <v>-0.1210500757604788</v>
+      </c>
+      <c r="K71">
+        <v>0.03841521273994464</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.01737747574044974</v>
+        <v>0.05476644777638111</v>
       </c>
       <c r="C72">
-        <v>-0.1519374367646561</v>
+        <v>-0.1431209468114017</v>
       </c>
       <c r="D72">
-        <v>-0.07159612777664164</v>
+        <v>0.05282444576252791</v>
       </c>
       <c r="E72">
-        <v>0.008189230125942337</v>
+        <v>0.01929718121691336</v>
       </c>
       <c r="F72">
-        <v>0.05179221707868988</v>
+        <v>-0.04340728753456503</v>
       </c>
       <c r="G72">
-        <v>-0.1067938607576394</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.008739442895347681</v>
+      </c>
+      <c r="H72">
+        <v>-0.01988181447313064</v>
+      </c>
+      <c r="I72">
+        <v>0.04036618687427614</v>
+      </c>
+      <c r="J72">
+        <v>0.1153228290218119</v>
+      </c>
+      <c r="K72">
+        <v>0.05485767778146694</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.06855023871025591</v>
+        <v>0.1490360376083148</v>
       </c>
       <c r="C73">
-        <v>-0.1029047344108561</v>
+        <v>-0.1950974843446076</v>
       </c>
       <c r="D73">
-        <v>-0.116893326498674</v>
+        <v>0.08813795017380641</v>
       </c>
       <c r="E73">
-        <v>0.1725055284201433</v>
+        <v>0.02119210070750064</v>
       </c>
       <c r="F73">
-        <v>-0.1500285106566914</v>
+        <v>-0.2375423038526202</v>
       </c>
       <c r="G73">
-        <v>-0.3388504086117172</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.3673834826082708</v>
+      </c>
+      <c r="H73">
+        <v>0.3085430985543171</v>
+      </c>
+      <c r="I73">
+        <v>-0.1154288966209445</v>
+      </c>
+      <c r="J73">
+        <v>-0.07367010994042646</v>
+      </c>
+      <c r="K73">
+        <v>0.08533799877879952</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.007633810652720299</v>
+        <v>0.03804270114777347</v>
       </c>
       <c r="C74">
-        <v>-0.08214678043554965</v>
+        <v>-0.09977324241674061</v>
       </c>
       <c r="D74">
-        <v>-0.08120284294269399</v>
+        <v>0.04861595291356723</v>
       </c>
       <c r="E74">
-        <v>0.07737639801145901</v>
+        <v>-0.009329208715664363</v>
       </c>
       <c r="F74">
-        <v>-0.04605996307559468</v>
+        <v>-0.0376223027950472</v>
       </c>
       <c r="G74">
-        <v>0.03305998671799838</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.04532778800767909</v>
+      </c>
+      <c r="H74">
+        <v>0.0089973643211882</v>
+      </c>
+      <c r="I74">
+        <v>0.03547761808027198</v>
+      </c>
+      <c r="J74">
+        <v>-0.001956316495436795</v>
+      </c>
+      <c r="K74">
+        <v>0.03972481809433667</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.04521644549629739</v>
+        <v>0.06366212663508136</v>
       </c>
       <c r="C75">
-        <v>-0.1365583299869136</v>
+        <v>-0.1646397892972169</v>
       </c>
       <c r="D75">
-        <v>-0.1012937037257675</v>
+        <v>0.08958450438752126</v>
       </c>
       <c r="E75">
-        <v>0.1729802232332213</v>
+        <v>-0.03402609982162389</v>
       </c>
       <c r="F75">
-        <v>-0.03476746025631609</v>
+        <v>-0.1207356821171892</v>
       </c>
       <c r="G75">
-        <v>0.1885121346894369</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.2296781175811315</v>
+      </c>
+      <c r="H75">
+        <v>0.02205091260236468</v>
+      </c>
+      <c r="I75">
+        <v>0.01117349879298654</v>
+      </c>
+      <c r="J75">
+        <v>-0.12386613594798</v>
+      </c>
+      <c r="K75">
+        <v>-0.09390843206891181</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.0152527066190145</v>
+        <v>0.04096460973646227</v>
       </c>
       <c r="C76">
-        <v>-0.09954676344322647</v>
+        <v>-0.1215987822291785</v>
       </c>
       <c r="D76">
-        <v>-0.07790498538832648</v>
+        <v>0.0758071418410791</v>
       </c>
       <c r="E76">
-        <v>0.08974900247143067</v>
+        <v>0.01329696773950879</v>
       </c>
       <c r="F76">
-        <v>-0.06229031217099249</v>
+        <v>-0.0865425870760423</v>
       </c>
       <c r="G76">
-        <v>0.04629191511398104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.07894461202835928</v>
+      </c>
+      <c r="H76">
+        <v>0.01999495880149499</v>
+      </c>
+      <c r="I76">
+        <v>0.04800092865151709</v>
+      </c>
+      <c r="J76">
+        <v>0.01919624327227672</v>
+      </c>
+      <c r="K76">
+        <v>-0.0228427813673747</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.08957849829454417</v>
+        <v>0.05033741322493732</v>
       </c>
       <c r="C77">
-        <v>-0.3797261350165418</v>
+        <v>-0.4115730855315187</v>
       </c>
       <c r="D77">
-        <v>0.8214825773484707</v>
+        <v>-0.8944756785335847</v>
       </c>
       <c r="E77">
-        <v>0.3368731447345794</v>
+        <v>-0.02175775642063223</v>
       </c>
       <c r="F77">
-        <v>-0.05573110123861225</v>
+        <v>-0.09130816844957908</v>
       </c>
       <c r="G77">
-        <v>-0.04617607137375398</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.03183235149935747</v>
+      </c>
+      <c r="H77">
+        <v>-0.03982685679253069</v>
+      </c>
+      <c r="I77">
+        <v>0.05162630019717805</v>
+      </c>
+      <c r="J77">
+        <v>-0.01183173266752367</v>
+      </c>
+      <c r="K77">
+        <v>-0.004380231841378898</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.02007503400704595</v>
+        <v>0.0340300282062832</v>
       </c>
       <c r="C78">
-        <v>-0.1290046384498618</v>
+        <v>-0.1124211064817019</v>
       </c>
       <c r="D78">
-        <v>-0.1370188426696113</v>
+        <v>0.09511035784430021</v>
       </c>
       <c r="E78">
-        <v>-0.05824899735414363</v>
+        <v>0.03695567184523655</v>
       </c>
       <c r="F78">
-        <v>-0.09781995510351685</v>
+        <v>0.003129239753212431</v>
       </c>
       <c r="G78">
-        <v>0.05247316923190219</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.1085446679448824</v>
+      </c>
+      <c r="H78">
+        <v>-0.0852359392556989</v>
+      </c>
+      <c r="I78">
+        <v>-0.03321706502924451</v>
+      </c>
+      <c r="J78">
+        <v>0.07510267490552555</v>
+      </c>
+      <c r="K78">
+        <v>0.4218275489622176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.02440452302852557</v>
+        <v>0.05419570495790817</v>
       </c>
       <c r="C79">
-        <v>-0.163730031411932</v>
+        <v>-0.1441468588000549</v>
       </c>
       <c r="D79">
-        <v>-0.1343510194136416</v>
+        <v>0.07257623436456902</v>
       </c>
       <c r="E79">
-        <v>0.117393420509074</v>
+        <v>0.01823632319059676</v>
       </c>
       <c r="F79">
-        <v>-0.09438094672296965</v>
+        <v>-0.06946768016003299</v>
       </c>
       <c r="G79">
-        <v>0.2207569496145778</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.2293039373993387</v>
+      </c>
+      <c r="H79">
+        <v>-0.01426722811900915</v>
+      </c>
+      <c r="I79">
+        <v>0.03584910044922345</v>
+      </c>
+      <c r="J79">
+        <v>-0.08008310570660385</v>
+      </c>
+      <c r="K79">
+        <v>0.05485153514086109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.009528031828549704</v>
+        <v>0.02059084043195014</v>
       </c>
       <c r="C80">
-        <v>-0.05221186613836911</v>
+        <v>-0.04487117116967959</v>
       </c>
       <c r="D80">
-        <v>-0.0547854453134403</v>
+        <v>0.04096018573818858</v>
       </c>
       <c r="E80">
-        <v>-0.03330992172961924</v>
+        <v>0.0463537577939919</v>
       </c>
       <c r="F80">
-        <v>-0.02523605449417617</v>
+        <v>0.02799058070076613</v>
       </c>
       <c r="G80">
-        <v>0.002216634943468203</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.06606274088547012</v>
+      </c>
+      <c r="H80">
+        <v>0.02614767261174042</v>
+      </c>
+      <c r="I80">
+        <v>-0.05707123077522625</v>
+      </c>
+      <c r="J80">
+        <v>-0.02441950618670009</v>
+      </c>
+      <c r="K80">
+        <v>-0.06256441790672035</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.006863802061400736</v>
+        <v>0.01801379167523394</v>
       </c>
       <c r="C81">
-        <v>-0.0694318069731148</v>
+        <v>-0.09785584582172956</v>
       </c>
       <c r="D81">
-        <v>-0.08428431538724386</v>
+        <v>0.05997072341606947</v>
       </c>
       <c r="E81">
-        <v>0.0901455824111408</v>
+        <v>0.01740460219529902</v>
       </c>
       <c r="F81">
-        <v>-0.06013447514361379</v>
+        <v>-0.05061612094509767</v>
       </c>
       <c r="G81">
-        <v>0.0701876897796072</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1075339549606975</v>
+      </c>
+      <c r="H81">
+        <v>-0.04268921304791185</v>
+      </c>
+      <c r="I81">
+        <v>0.02260851993869017</v>
+      </c>
+      <c r="J81">
+        <v>-0.0544721184602278</v>
+      </c>
+      <c r="K81">
+        <v>-0.01627852223782057</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.01960975736048004</v>
+        <v>0.0438770954255813</v>
       </c>
       <c r="C82">
-        <v>-0.0736320103553397</v>
+        <v>-0.1008575720213496</v>
       </c>
       <c r="D82">
-        <v>-0.08284364953468833</v>
+        <v>0.06732757369423023</v>
       </c>
       <c r="E82">
-        <v>0.1060915082254207</v>
+        <v>0.01843379902169417</v>
       </c>
       <c r="F82">
-        <v>-0.051889435414252</v>
+        <v>-0.07372273655370529</v>
       </c>
       <c r="G82">
-        <v>0.03865362055504732</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.088987757325177</v>
+      </c>
+      <c r="H82">
+        <v>-0.004636333308992238</v>
+      </c>
+      <c r="I82">
+        <v>0.0227428681387223</v>
+      </c>
+      <c r="J82">
+        <v>-0.008602617899010108</v>
+      </c>
+      <c r="K82">
+        <v>0.002347222495496894</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.0005130800913503563</v>
+        <v>-0.001315384887865159</v>
       </c>
       <c r="C83">
-        <v>-0.03297348693362433</v>
+        <v>0.02382512300798158</v>
       </c>
       <c r="D83">
-        <v>0.1645196909127911</v>
+        <v>-0.05742031719376336</v>
       </c>
       <c r="E83">
-        <v>-0.4865619016787301</v>
+        <v>0.9518907610442061</v>
       </c>
       <c r="F83">
-        <v>-0.7731144174393604</v>
+        <v>0.1409099164427258</v>
       </c>
       <c r="G83">
-        <v>0.1431488346242245</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04137667752705258</v>
+      </c>
+      <c r="H83">
+        <v>0.06530481652215211</v>
+      </c>
+      <c r="I83">
+        <v>-0.03307368512505485</v>
+      </c>
+      <c r="J83">
+        <v>0.08317972470236587</v>
+      </c>
+      <c r="K83">
+        <v>0.0303382239112596</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.007509921616203909</v>
+        <v>-0.002121655983690547</v>
       </c>
       <c r="C84">
-        <v>-0.07760787945707376</v>
+        <v>-0.04734732186360838</v>
       </c>
       <c r="D84">
-        <v>-0.0408470121961746</v>
+        <v>0.06338349765102314</v>
       </c>
       <c r="E84">
-        <v>-0.08301003666748066</v>
+        <v>-0.03054589020596023</v>
       </c>
       <c r="F84">
-        <v>0.137933241363264</v>
+        <v>0.09437107288672419</v>
       </c>
       <c r="G84">
-        <v>0.01788408223670456</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.03309407331004983</v>
+      </c>
+      <c r="H84">
+        <v>-0.08074316776071312</v>
+      </c>
+      <c r="I84">
+        <v>0.0888327120531598</v>
+      </c>
+      <c r="J84">
+        <v>0.124197300555687</v>
+      </c>
+      <c r="K84">
+        <v>-0.05830052411434494</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.007073341669410362</v>
+        <v>0.02854152560586894</v>
       </c>
       <c r="C85">
-        <v>-0.1168189551424792</v>
+        <v>-0.1150959782274104</v>
       </c>
       <c r="D85">
-        <v>-0.09884881318814763</v>
+        <v>0.08436402208214575</v>
       </c>
       <c r="E85">
-        <v>0.1211428330791375</v>
+        <v>0.02305017844995907</v>
       </c>
       <c r="F85">
-        <v>-0.0899956881819213</v>
+        <v>-0.1318700614247506</v>
       </c>
       <c r="G85">
-        <v>0.1668036928349549</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.2186544726815174</v>
+      </c>
+      <c r="H85">
+        <v>0.04031175711113861</v>
+      </c>
+      <c r="I85">
+        <v>0.06933069429865955</v>
+      </c>
+      <c r="J85">
+        <v>-0.07257368265693444</v>
+      </c>
+      <c r="K85">
+        <v>-0.03305385748104094</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.01764034750001387</v>
+        <v>0.0162528520127345</v>
       </c>
       <c r="C86">
-        <v>-0.07417985413432113</v>
+        <v>-0.08100695614589407</v>
       </c>
       <c r="D86">
-        <v>0.01621995297803279</v>
+        <v>0.03380798005236661</v>
       </c>
       <c r="E86">
-        <v>-0.009009793767147558</v>
+        <v>-0.007018831027085032</v>
       </c>
       <c r="F86">
-        <v>0.03876180065078563</v>
+        <v>0.07694844339753276</v>
       </c>
       <c r="G86">
-        <v>-0.08058369271103995</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.05611736515011712</v>
+      </c>
+      <c r="H86">
+        <v>-0.0263347056991356</v>
+      </c>
+      <c r="I86">
+        <v>-0.136752931693533</v>
+      </c>
+      <c r="J86">
+        <v>-0.1162520780841995</v>
+      </c>
+      <c r="K86">
+        <v>0.1680673220422043</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.02086753346103732</v>
+        <v>0.02520995448745457</v>
       </c>
       <c r="C87">
-        <v>-0.1485168504034761</v>
+        <v>-0.1187872862838774</v>
       </c>
       <c r="D87">
-        <v>-0.04084991485862711</v>
+        <v>0.02526283126617218</v>
       </c>
       <c r="E87">
-        <v>-0.0978113351540766</v>
+        <v>-0.002811529419279532</v>
       </c>
       <c r="F87">
-        <v>0.03798858313846601</v>
+        <v>0.05938343799628273</v>
       </c>
       <c r="G87">
-        <v>-0.008325041089803246</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.009228566545415061</v>
+      </c>
+      <c r="H87">
+        <v>-0.02170061647079261</v>
+      </c>
+      <c r="I87">
+        <v>0.09252315512174103</v>
+      </c>
+      <c r="J87">
+        <v>0.07103388033774474</v>
+      </c>
+      <c r="K87">
+        <v>0.03952892950179169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.008317319581046248</v>
+        <v>0.03920789592076983</v>
       </c>
       <c r="C88">
-        <v>-0.03452737056730842</v>
+        <v>-0.0603257583838978</v>
       </c>
       <c r="D88">
-        <v>-0.04638231494852026</v>
+        <v>0.0421405598991673</v>
       </c>
       <c r="E88">
-        <v>0.0538221559293449</v>
+        <v>-0.005114702491821194</v>
       </c>
       <c r="F88">
-        <v>-0.007680376889590311</v>
+        <v>-0.022696219760007</v>
       </c>
       <c r="G88">
-        <v>0.001615898730522721</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.01978980124021379</v>
+      </c>
+      <c r="H88">
+        <v>0.007772565641708445</v>
+      </c>
+      <c r="I88">
+        <v>-0.006978502611444885</v>
+      </c>
+      <c r="J88">
+        <v>-0.007148377719734842</v>
+      </c>
+      <c r="K88">
+        <v>-0.06698140669816939</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.4027388206062499</v>
+        <v>0.3922238450814687</v>
       </c>
       <c r="C89">
-        <v>0.06666803026664692</v>
+        <v>0.1132461578500378</v>
       </c>
       <c r="D89">
-        <v>-0.07206160640600648</v>
+        <v>-0.03670724774761762</v>
       </c>
       <c r="E89">
-        <v>-0.08015018359753523</v>
+        <v>-0.04499281641757102</v>
       </c>
       <c r="F89">
-        <v>0.08997673866180174</v>
+        <v>0.05725292341780515</v>
       </c>
       <c r="G89">
-        <v>0.05009310298783821</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.03523538971062496</v>
+      </c>
+      <c r="H89">
+        <v>-0.02125653634774923</v>
+      </c>
+      <c r="I89">
+        <v>0.05750210603227743</v>
+      </c>
+      <c r="J89">
+        <v>0.7273685183078296</v>
+      </c>
+      <c r="K89">
+        <v>-0.03972296226217988</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3089727485865128</v>
+        <v>0.3161620068110516</v>
       </c>
       <c r="C90">
-        <v>0.01857003713632875</v>
+        <v>0.0727529805701126</v>
       </c>
       <c r="D90">
-        <v>0.005605685234957989</v>
+        <v>-0.0190303170503613</v>
       </c>
       <c r="E90">
-        <v>-0.07495157190735779</v>
+        <v>0.006451586855001462</v>
       </c>
       <c r="F90">
-        <v>-0.0476078738931099</v>
+        <v>0.04008025320205852</v>
       </c>
       <c r="G90">
-        <v>-0.03720386304666098</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.001542175581814753</v>
+      </c>
+      <c r="H90">
+        <v>-0.01998628632031401</v>
+      </c>
+      <c r="I90">
+        <v>0.003559160168098303</v>
+      </c>
+      <c r="J90">
+        <v>-0.08394582576062548</v>
+      </c>
+      <c r="K90">
+        <v>0.009896130115597607</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.02317503614496279</v>
+        <v>0.05374279948258929</v>
       </c>
       <c r="C91">
-        <v>-0.07611352248610516</v>
+        <v>-0.08117686379026502</v>
       </c>
       <c r="D91">
-        <v>-0.07478258931058586</v>
+        <v>0.05521113800863513</v>
       </c>
       <c r="E91">
-        <v>0.06540295496398715</v>
+        <v>0.04559905587011998</v>
       </c>
       <c r="F91">
-        <v>-0.06041550291096638</v>
+        <v>-0.05748310956461056</v>
       </c>
       <c r="G91">
-        <v>0.07493616345484715</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.08569487088993551</v>
+      </c>
+      <c r="H91">
+        <v>0.03329067611362097</v>
+      </c>
+      <c r="I91">
+        <v>0.001172295510932674</v>
+      </c>
+      <c r="J91">
+        <v>-0.002696806369835068</v>
+      </c>
+      <c r="K91">
+        <v>-0.06360481627185535</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3798438087335887</v>
+        <v>0.3535568277110948</v>
       </c>
       <c r="C92">
-        <v>0.05437869276666377</v>
+        <v>0.1171590195315312</v>
       </c>
       <c r="D92">
-        <v>0.01413901421996545</v>
+        <v>-0.0555601199864113</v>
       </c>
       <c r="E92">
-        <v>0.01061884599150474</v>
+        <v>-0.0425822027715804</v>
       </c>
       <c r="F92">
-        <v>0.108973145067109</v>
+        <v>0.04813309441664239</v>
       </c>
       <c r="G92">
-        <v>0.01534631961598852</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.01378384750710183</v>
+      </c>
+      <c r="H92">
+        <v>-0.06032327148271927</v>
+      </c>
+      <c r="I92">
+        <v>0.005768001045018812</v>
+      </c>
+      <c r="J92">
+        <v>-0.150863868697504</v>
+      </c>
+      <c r="K92">
+        <v>-0.003027675673003961</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.308268710848224</v>
+        <v>0.3115097715561464</v>
       </c>
       <c r="C93">
-        <v>0.06955475672572957</v>
+        <v>0.111623983322398</v>
       </c>
       <c r="D93">
-        <v>-0.008832513985153979</v>
+        <v>-0.01021263082760356</v>
       </c>
       <c r="E93">
-        <v>-0.06688650281015636</v>
+        <v>-0.005832408686957747</v>
       </c>
       <c r="F93">
-        <v>0.02814857500272282</v>
+        <v>0.03705423102546793</v>
       </c>
       <c r="G93">
-        <v>0.01105109453553066</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03956778267959949</v>
+      </c>
+      <c r="H93">
+        <v>-0.03488299035522166</v>
+      </c>
+      <c r="I93">
+        <v>-0.02380733584045816</v>
+      </c>
+      <c r="J93">
+        <v>-0.1022149670999597</v>
+      </c>
+      <c r="K93">
+        <v>0.01983890504679536</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.03880018440608077</v>
+        <v>0.07791468297167606</v>
       </c>
       <c r="C94">
-        <v>-0.1935165725707396</v>
+        <v>-0.1606565898185879</v>
       </c>
       <c r="D94">
-        <v>-0.1584580141706487</v>
+        <v>0.1125519839617794</v>
       </c>
       <c r="E94">
-        <v>0.2132153011906694</v>
+        <v>0.03627433157683429</v>
       </c>
       <c r="F94">
-        <v>-0.06334101947692999</v>
+        <v>-0.1544529753556622</v>
       </c>
       <c r="G94">
-        <v>0.5885827963000174</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.5453415235970326</v>
+      </c>
+      <c r="H94">
+        <v>0.1889131391903789</v>
+      </c>
+      <c r="I94">
+        <v>-0.03533496158828859</v>
+      </c>
+      <c r="J94">
+        <v>0.08367539294164915</v>
+      </c>
+      <c r="K94">
+        <v>-0.2716449718571382</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.01978326414767487</v>
+        <v>0.03877168649251991</v>
       </c>
       <c r="C95">
-        <v>-0.09453902900186761</v>
+        <v>-0.1265102965111042</v>
       </c>
       <c r="D95">
-        <v>-0.04399112753604379</v>
+        <v>0.06531710511402422</v>
       </c>
       <c r="E95">
-        <v>0.03830633177008289</v>
+        <v>-0.01815683075677721</v>
       </c>
       <c r="F95">
-        <v>-0.07517920332749681</v>
+        <v>-0.07704407945913232</v>
       </c>
       <c r="G95">
-        <v>-0.08034410329713557</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.0474440434308876</v>
+      </c>
+      <c r="H95">
+        <v>-0.05788067116269882</v>
+      </c>
+      <c r="I95">
+        <v>0.08924325786262352</v>
+      </c>
+      <c r="J95">
+        <v>0.1674793282616082</v>
+      </c>
+      <c r="K95">
+        <v>-0.2649225481975571</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>6.406761020357211e-05</v>
+        <v>0.0162477651306595</v>
       </c>
       <c r="C97">
-        <v>0.0009407053773856979</v>
+        <v>-0.01629743443222536</v>
       </c>
       <c r="D97">
-        <v>-0.0004640229608071</v>
+        <v>-0.005896600822119713</v>
       </c>
       <c r="E97">
-        <v>0.003032797870433785</v>
+        <v>-0.02890680975262678</v>
       </c>
       <c r="F97">
-        <v>0.003720265186323599</v>
+        <v>-0.005514854727782369</v>
       </c>
       <c r="G97">
-        <v>-0.001480215336887359</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.01605594211622649</v>
+      </c>
+      <c r="H97">
+        <v>-0.06281554713962488</v>
+      </c>
+      <c r="I97">
+        <v>-0.142736435204059</v>
+      </c>
+      <c r="J97">
+        <v>0.04195936799251215</v>
+      </c>
+      <c r="K97">
+        <v>-0.03872811259198733</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.07729064759903696</v>
+        <v>0.13053410753721</v>
       </c>
       <c r="C98">
-        <v>-0.1381823521659697</v>
+        <v>-0.160294573561362</v>
       </c>
       <c r="D98">
-        <v>-0.135000719365391</v>
+        <v>0.09518765661055192</v>
       </c>
       <c r="E98">
-        <v>0.0986887438128837</v>
+        <v>0.04093618778763863</v>
       </c>
       <c r="F98">
-        <v>-0.1019465884329124</v>
+        <v>-0.2185716736466743</v>
       </c>
       <c r="G98">
-        <v>-0.2187754251671017</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.2965802463172205</v>
+      </c>
+      <c r="H98">
+        <v>0.3413878955697507</v>
+      </c>
+      <c r="I98">
+        <v>-0.1229955072598773</v>
+      </c>
+      <c r="J98">
+        <v>-0.09341954335847018</v>
+      </c>
+      <c r="K98">
+        <v>0.06730524006544315</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01895876154175743</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.03920391697409858</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.0150929356280535</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.03570733007388275</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.07903297193385861</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.08039299940099587</v>
+      </c>
+      <c r="H99">
+        <v>-0.2649061486696951</v>
+      </c>
+      <c r="I99">
+        <v>-0.8878407599302712</v>
+      </c>
+      <c r="J99">
+        <v>0.1277141873214056</v>
+      </c>
+      <c r="K99">
+        <v>-0.02876181299465496</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.004214776715153743</v>
+        <v>0.01496535128773807</v>
       </c>
       <c r="C101">
-        <v>-0.07391903684031235</v>
+        <v>-0.08255279432980213</v>
       </c>
       <c r="D101">
-        <v>-0.04489031500831957</v>
+        <v>0.05145933096927907</v>
       </c>
       <c r="E101">
-        <v>-0.02005797057035698</v>
+        <v>0.04729512110176761</v>
       </c>
       <c r="F101">
-        <v>-0.02463005967475775</v>
+        <v>0.00607719495675934</v>
       </c>
       <c r="G101">
-        <v>-0.1140215561171107</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1418988941844646</v>
+      </c>
+      <c r="H101">
+        <v>-0.2697344781013074</v>
+      </c>
+      <c r="I101">
+        <v>0.06350796570242852</v>
+      </c>
+      <c r="J101">
+        <v>-0.01557415036858312</v>
+      </c>
+      <c r="K101">
+        <v>-0.1886326439232754</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.006438560063501776</v>
+        <v>0.002805288919632477</v>
       </c>
       <c r="C102">
-        <v>-0.0190282907121229</v>
+        <v>-0.007527868813073792</v>
       </c>
       <c r="D102">
-        <v>-0.003228088092613431</v>
+        <v>-0.001623776154041782</v>
       </c>
       <c r="E102">
-        <v>0.03007571748038038</v>
+        <v>0.002838930449422655</v>
       </c>
       <c r="F102">
-        <v>-0.02132086372261334</v>
+        <v>-0.008605572764095204</v>
       </c>
       <c r="G102">
-        <v>0.009224577945531972</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.005822247230341654</v>
+      </c>
+      <c r="H102">
+        <v>-0.001363860050688754</v>
+      </c>
+      <c r="I102">
+        <v>0.003314110019678414</v>
+      </c>
+      <c r="J102">
+        <v>0.01014657502002796</v>
+      </c>
+      <c r="K102">
+        <v>0.00152333497122569</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
